--- a/level-3/leetcode/phase-3-2/leetcode-phase-3-2.xlsx
+++ b/level-3/leetcode/phase-3-2/leetcode-phase-3-2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D7AA5-5111-41E8-A7A8-1B706EED397F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F689F5-2D11-4C8F-A1A2-88FE9C2277C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode-phase-3-2" sheetId="14" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="202">
   <si>
     <t>Problem Link</t>
   </si>
@@ -504,9 +504,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-score-from-performing-multiplication-operations/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/can-i-win/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/decode-ways/</t>
@@ -833,6 +830,12 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,12 +862,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,56 +1268,56 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C39:C200)</f>
         <v>#DIV/0!</v>
@@ -1351,12 +1348,12 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J981)</f>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1366,12 +1363,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -1381,12 +1378,12 @@
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -1396,12 +1393,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -1411,12 +1408,12 @@
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
@@ -1426,12 +1423,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -1441,12 +1438,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
@@ -1456,12 +1453,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -1471,12 +1468,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -1486,12 +1483,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -1501,12 +1498,12 @@
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>2</v>
@@ -1516,12 +1513,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
@@ -1531,12 +1528,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -1546,12 +1543,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
@@ -1561,12 +1558,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>15</v>
@@ -1576,12 +1573,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1591,12 +1588,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -1606,12 +1603,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
@@ -1621,12 +1618,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>15</v>
@@ -1636,12 +1633,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>15</v>
@@ -1651,12 +1648,12 @@
         <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
@@ -1666,12 +1663,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>15</v>
@@ -1681,12 +1678,12 @@
         <v>0</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -1696,12 +1693,12 @@
         <v>0</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>15</v>
@@ -1711,12 +1708,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>15</v>
@@ -1726,12 +1723,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>15</v>
@@ -1741,12 +1738,12 @@
         <v>0</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>15</v>
@@ -1756,12 +1753,12 @@
         <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>15</v>
@@ -1771,12 +1768,12 @@
         <v>0</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
@@ -1786,12 +1783,12 @@
         <v>0</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
@@ -1801,12 +1798,12 @@
         <v>0</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
@@ -1816,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
@@ -1831,12 +1828,12 @@
         <v>0</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>15</v>
@@ -1846,12 +1843,12 @@
         <v>0</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>15</v>
@@ -1861,12 +1858,12 @@
         <v>0</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>15</v>
@@ -1876,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1916,7 +1913,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1937,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1958,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1979,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2000,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="23" t="s">
+      <c r="J44" s="14" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2021,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2042,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="23" t="s">
+      <c r="J46" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2063,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2084,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="23" t="s">
+      <c r="J48" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2105,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2126,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="23" t="s">
+      <c r="J50" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2147,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="23" t="s">
+      <c r="J51" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2168,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="23" t="s">
+      <c r="J52" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2189,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2210,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2231,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2252,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="23" t="s">
+      <c r="J56" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2273,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="23" t="s">
+      <c r="J57" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2294,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="23" t="s">
+      <c r="J58" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2315,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2336,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="23" t="s">
+      <c r="J60" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2357,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="23" t="s">
+      <c r="J61" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2378,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="23" t="s">
+      <c r="J62" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2399,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2420,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2441,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="23" t="s">
+      <c r="J65" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2462,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="23" t="s">
+      <c r="J66" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2483,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="23" t="s">
+      <c r="J67" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2504,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2525,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2546,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2567,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="23" t="s">
+      <c r="J71" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2588,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2609,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2630,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="23" t="s">
+      <c r="J74" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2651,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="23" t="s">
+      <c r="J75" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2672,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="23" t="s">
+      <c r="J76" s="14" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2693,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2714,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2734,7 +2731,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="23" t="s">
+      <c r="J79" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4890,7 +4887,7 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H184:H186" si="6">SUM(C184:G184)</f>
         <v>0</v>
       </c>
       <c r="J184" s="11" t="s">
@@ -4910,7 +4907,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J185" s="11" t="s">
@@ -4930,7 +4927,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J186" s="11" t="s">
@@ -4938,24 +4935,15 @@
       </c>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
-      <c r="H187" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J187" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="H187" s="13"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
